--- a/data/figure_4/buckmaster-2012.xlsx
+++ b/data/figure_4/buckmaster-2012.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/repositories/AIS-geometry-and-excitability/data/AIS vs soma diameter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romainbrette/PycharmProjects/AIS-geometry-and-excitability-2019/data/figure_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5985B363-CCBA-0043-8B3A-F1352A0407EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D924CF29-1662-F747-9357-B5EB9A83F00E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17720" yWindow="4380" windowWidth="21120" windowHeight="11340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="440" yWindow="460" windowWidth="42480" windowHeight="24800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -25,15 +31,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Soma area (um)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Mean</t>
   </si>
   <si>
     <t>STD</t>
+  </si>
+  <si>
+    <t>Data digitized from: Buckmaster PS. 2012. Mossy cell dendritic structure quantified and compared with other hippocampal neurons labeled in rats in vivo. 
+Epilepsia 53:9–17</t>
+  </si>
+  <si>
+    <t>Soma diameter (um)</t>
+  </si>
+  <si>
+    <t>Soma section area (um2)</t>
   </si>
 </sst>
 </file>
@@ -43,7 +56,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -62,6 +75,12 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -95,9 +114,10 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="En-tête" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
@@ -416,119 +436,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="1026" width="11.5"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="1026" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="B2">
-        <v>500</v>
-      </c>
-      <c r="C2">
-        <f>2 * SQRT(B2 / PI())</f>
-        <v>25.231325220201601</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3">
-        <v>390</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C10" si="0">2 * SQRT(B3 / PI())</f>
-        <v>22.283703068536735</v>
+      <c r="A1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4">
-        <v>327</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>20.404639941160397</v>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5">
-        <v>307</v>
+        <v>500</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>19.77080019204319</v>
+        <f>2 * SQRT(B5 / PI())</f>
+        <v>25.231325220201601</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>21.909160375631842</v>
+        <f t="shared" ref="C6:C13" si="0">2 * SQRT(B6 / PI())</f>
+        <v>22.283703068536735</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7">
-        <v>236</v>
+        <v>327</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>17.334489682638438</v>
+        <v>20.404639941160397</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8">
-        <v>534</v>
+        <v>307</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>26.075082298788182</v>
+        <v>19.77080019204319</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9">
-        <v>264</v>
+        <v>377</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>18.333991376950163</v>
+        <v>21.909160375631842</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10">
+        <v>236</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>17.334489682638438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11">
+        <v>534</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>26.075082298788182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12">
+        <v>264</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>18.333991376950163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
         <v>230</v>
       </c>
-      <c r="C10">
+      <c r="C13">
         <f t="shared" si="0"/>
         <v>17.112717355495807</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
+        <f>AVERAGE(C5:C13)</f>
+        <v>20.939545501271816</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1">
-        <f>AVERAGE(C2:C10)</f>
-        <v>20.939545501271816</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1">
-        <f xml:space="preserve"> _xlfn.STDEV.S(C2:C10)</f>
+      <c r="C15" s="1">
+        <f xml:space="preserve"> _xlfn.STDEV.S(C5:C13)</f>
         <v>3.2330725882721687</v>
       </c>
     </row>
